--- a/fixtures/download_template/wells.xlsx
+++ b/fixtures/download_template/wells.xlsx
@@ -193,7 +193,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> meter
+      <t xml:space="preserve"> m
 </t>
     </r>
     <r>
@@ -215,7 +215,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> feet</t>
+      <t xml:space="preserve"> ft</t>
     </r>
   </si>
   <si>
@@ -532,8 +532,8 @@
   </sheetPr>
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
